--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/ARIZONA_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/ARIZONA_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1480"/>
+  <dimension ref="A1:D1474"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C9">
@@ -548,7 +548,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C14">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C33">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C41">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C45">
@@ -1239,7 +1239,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C66">
@@ -1304,7 +1304,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C71">
@@ -1395,7 +1395,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C78">
@@ -1408,7 +1408,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C79">
@@ -2063,7 +2063,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C129">
@@ -2102,7 +2102,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C132">
@@ -2375,7 +2375,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C153">
@@ -2388,7 +2388,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C154">
@@ -2492,7 +2492,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C162">
@@ -2827,7 +2827,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C187">
@@ -2853,7 +2853,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2910,7 +2910,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C193">
@@ -3110,7 +3110,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C208">
@@ -3292,7 +3292,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C222">
@@ -3344,7 +3344,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C226">
@@ -3435,7 +3435,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C233">
@@ -3448,7 +3448,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C234">
@@ -3578,12 +3578,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C244">
@@ -3622,7 +3622,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C247">
@@ -3635,7 +3635,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C248">
@@ -3648,7 +3648,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C249">
@@ -3700,7 +3700,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C253">
@@ -3778,7 +3778,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C259">
@@ -3830,7 +3830,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C263">
@@ -3908,7 +3908,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C269">
@@ -3947,7 +3947,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C272">
@@ -3960,7 +3960,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C273">
@@ -4129,7 +4129,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C286">
@@ -4246,7 +4246,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C295">
@@ -4259,7 +4259,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C296">
@@ -4272,7 +4272,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C297">
@@ -4311,7 +4311,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C300">
@@ -4428,7 +4428,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C309">
@@ -4545,7 +4545,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C318">
@@ -4623,7 +4623,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C324">
@@ -4636,7 +4636,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C325">
@@ -4649,7 +4649,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C326">
@@ -4662,7 +4662,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C327">
@@ -4810,7 +4810,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C338">
@@ -4914,7 +4914,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C346">
@@ -4966,7 +4966,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C350">
@@ -5070,7 +5070,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C358">
@@ -5122,7 +5122,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C362">
@@ -5148,7 +5148,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C364">
@@ -5174,7 +5174,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C366">
@@ -5187,7 +5187,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C367">
@@ -5200,7 +5200,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C368">
@@ -5252,7 +5252,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C372">
@@ -5322,7 +5322,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C377">
@@ -5361,7 +5361,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C380">
@@ -5374,7 +5374,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C381">
@@ -5426,7 +5426,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C385">
@@ -5452,7 +5452,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C387">
@@ -5465,7 +5465,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C388">
@@ -5504,7 +5504,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C391">
@@ -5517,7 +5517,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C392">
@@ -5530,7 +5530,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C393">
@@ -5543,7 +5543,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C394">
@@ -5608,7 +5608,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C399">
@@ -5621,7 +5621,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C400">
@@ -5673,7 +5673,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C404">
@@ -5686,7 +5686,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C405">
@@ -5764,7 +5764,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C411">
@@ -5777,7 +5777,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C412">
@@ -5803,7 +5803,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C414">
@@ -5816,7 +5816,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C415">
@@ -5842,7 +5842,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C417">
@@ -5881,7 +5881,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C420">
@@ -6050,7 +6050,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C433">
@@ -6076,7 +6076,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C435">
@@ -6102,7 +6102,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C437">
@@ -6128,7 +6128,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C439">
@@ -6180,7 +6180,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C443">
@@ -6341,7 +6341,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C455">
@@ -6419,7 +6419,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C461">
@@ -6484,7 +6484,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C466">
@@ -6549,7 +6549,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C471">
@@ -6614,7 +6614,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C476">
@@ -6692,7 +6692,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C482">
@@ -6705,7 +6705,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C483">
@@ -6718,7 +6718,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C484">
@@ -6731,7 +6731,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C485">
@@ -6744,7 +6744,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C486">
@@ -6757,7 +6757,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C487">
@@ -6770,7 +6770,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C488">
@@ -6796,7 +6796,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C490">
@@ -6861,7 +6861,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C495">
@@ -6874,7 +6874,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C496">
@@ -6913,7 +6913,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C499">
@@ -6939,7 +6939,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C501">
@@ -6978,7 +6978,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C504">
@@ -7043,7 +7043,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C509">
@@ -7056,7 +7056,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C510">
@@ -7095,7 +7095,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C513">
@@ -7108,7 +7108,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C514">
@@ -7178,7 +7178,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C519">
@@ -7191,7 +7191,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C520">
@@ -7256,7 +7256,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C525">
@@ -7269,7 +7269,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C526">
@@ -7334,7 +7334,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C531">
@@ -7412,7 +7412,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C537">
@@ -7529,7 +7529,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C546">
@@ -7594,7 +7594,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C551">
@@ -7607,7 +7607,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C552">
@@ -7620,7 +7620,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C553">
@@ -7672,7 +7672,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C557">
@@ -7750,7 +7750,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C563">
@@ -7763,7 +7763,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C564">
@@ -7867,7 +7867,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C572">
@@ -7932,7 +7932,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C577">
@@ -7945,7 +7945,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C578">
@@ -7971,7 +7971,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C580">
@@ -7984,7 +7984,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C581">
@@ -8010,7 +8010,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C583">
@@ -8023,7 +8023,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C584">
@@ -8036,7 +8036,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C585">
@@ -8075,7 +8075,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C588">
@@ -8088,7 +8088,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C589">
@@ -8166,7 +8166,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C595">
@@ -8179,7 +8179,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C596">
@@ -8205,7 +8205,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C598">
@@ -8218,7 +8218,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C599">
@@ -8361,7 +8361,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C610">
@@ -8374,7 +8374,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C611">
@@ -8387,7 +8387,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C612">
@@ -8452,7 +8452,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C617">
@@ -8465,7 +8465,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C618">
@@ -8504,7 +8504,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C621">
@@ -8517,7 +8517,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C622">
@@ -8795,7 +8795,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C643">
@@ -8821,7 +8821,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C645">
@@ -9679,7 +9679,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C711">
@@ -10113,7 +10113,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C744">
@@ -10178,7 +10178,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C749">
@@ -10191,7 +10191,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C750">
@@ -10339,7 +10339,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C761">
@@ -10352,7 +10352,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C762">
@@ -10404,7 +10404,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C766">
@@ -10495,7 +10495,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C773">
@@ -10630,7 +10630,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C783">
@@ -10643,7 +10643,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C784">
@@ -10682,7 +10682,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C787">
@@ -10713,7 +10713,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C789">
@@ -10791,7 +10791,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C795">
@@ -10830,7 +10830,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C798">
@@ -10843,7 +10843,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C799">
@@ -10869,7 +10869,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C801">
@@ -10882,7 +10882,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C802">
@@ -10895,7 +10895,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C803">
@@ -10908,7 +10908,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C804">
@@ -10921,7 +10921,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C805">
@@ -10934,7 +10934,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C806">
@@ -11038,7 +11038,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C814">
@@ -11064,7 +11064,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C816">
@@ -11077,7 +11077,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C817">
@@ -11103,7 +11103,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C819">
@@ -11129,7 +11129,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C821">
@@ -11142,7 +11142,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C822">
@@ -11168,7 +11168,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C824">
@@ -11311,7 +11311,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C835">
@@ -11389,7 +11389,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C841">
@@ -11623,7 +11623,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C859">
@@ -11714,7 +11714,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C866">
@@ -12039,7 +12039,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C891">
@@ -12065,7 +12065,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C893">
@@ -12195,7 +12195,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C903">
@@ -12377,7 +12377,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C917">
@@ -12390,7 +12390,7 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C918">
@@ -12858,7 +12858,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C954">
@@ -13014,7 +13014,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C966">
@@ -13027,7 +13027,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C967">
@@ -13040,7 +13040,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C968">
@@ -13053,7 +13053,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C969">
@@ -13066,7 +13066,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C970">
@@ -13079,7 +13079,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C971">
@@ -13105,7 +13105,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C973">
@@ -13118,7 +13118,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C974">
@@ -13131,7 +13131,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C975">
@@ -13144,7 +13144,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C976">
@@ -13157,7 +13157,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C977">
@@ -13170,7 +13170,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C978">
@@ -13196,7 +13196,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C980">
@@ -13435,7 +13435,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C998">
@@ -13591,7 +13591,7 @@
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1010">
@@ -13708,7 +13708,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1019">
@@ -13747,7 +13747,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1022">
@@ -13760,7 +13760,7 @@
     <row r="1023">
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1023">
@@ -13786,7 +13786,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1025">
@@ -13851,7 +13851,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1030">
@@ -13942,7 +13942,7 @@
     <row r="1037">
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1037">
@@ -14098,7 +14098,7 @@
     <row r="1049">
       <c r="B1049" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1049">
@@ -14124,7 +14124,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1051">
@@ -14137,7 +14137,7 @@
     <row r="1052">
       <c r="B1052" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1052">
@@ -14280,7 +14280,7 @@
     <row r="1063">
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1063">
@@ -14332,7 +14332,7 @@
     <row r="1067">
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1067">
@@ -14358,7 +14358,7 @@
     <row r="1069">
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1069">
@@ -14423,7 +14423,7 @@
     <row r="1074">
       <c r="B1074" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1074">
@@ -14579,7 +14579,7 @@
     <row r="1086">
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1086">
@@ -14766,7 +14766,7 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1100">
@@ -14779,7 +14779,7 @@
     <row r="1101">
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1101">
@@ -14857,7 +14857,7 @@
     <row r="1107">
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1107">
@@ -14870,7 +14870,7 @@
     <row r="1108">
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1108">
@@ -14909,7 +14909,7 @@
     <row r="1111">
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1111">
@@ -14948,7 +14948,7 @@
     <row r="1114">
       <c r="B1114" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1114">
@@ -15049,7 +15049,7 @@
     <row r="1121">
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1121">
@@ -15101,7 +15101,7 @@
     <row r="1125">
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1125">
@@ -15166,7 +15166,7 @@
     <row r="1130">
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1130">
@@ -15231,7 +15231,7 @@
     <row r="1135">
       <c r="B1135" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1135">
@@ -15283,7 +15283,7 @@
     <row r="1139">
       <c r="B1139" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1139">
@@ -15387,7 +15387,7 @@
     <row r="1147">
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1147">
@@ -15400,7 +15400,7 @@
     <row r="1148">
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1148">
@@ -15413,7 +15413,7 @@
     <row r="1149">
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1149">
@@ -16119,7 +16119,7 @@
         <v>197</v>
       </c>
       <c r="D1202">
-        <v>0.009709694908571147</v>
+        <v>0.009709694908571148</v>
       </c>
     </row>
     <row r="1203">
@@ -16268,7 +16268,7 @@
     <row r="1214">
       <c r="B1214" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1214">
@@ -16411,7 +16411,7 @@
     <row r="1225">
       <c r="B1225" t="inlineStr">
         <is>
-          <t>San Felipe de Jesús</t>
+          <t>San Felipe De Jesús</t>
         </is>
       </c>
       <c r="C1225">
@@ -16463,7 +16463,7 @@
     <row r="1229">
       <c r="B1229" t="inlineStr">
         <is>
-          <t>San Pedro de la Cueva</t>
+          <t>San Pedro De La Cueva</t>
         </is>
       </c>
       <c r="C1229">
@@ -16728,7 +16728,7 @@
     <row r="1249">
       <c r="B1249" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1249">
@@ -16967,7 +16967,7 @@
     <row r="1267">
       <c r="B1267" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1267">
@@ -17050,7 +17050,7 @@
       </c>
       <c r="B1273" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1273">
@@ -17128,7 +17128,7 @@
     <row r="1279">
       <c r="B1279" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1279">
@@ -17154,7 +17154,7 @@
     <row r="1281">
       <c r="B1281" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1281">
@@ -17167,7 +17167,7 @@
     <row r="1282">
       <c r="B1282" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1282">
@@ -17419,7 +17419,7 @@
     <row r="1301">
       <c r="B1301" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1301">
@@ -17549,7 +17549,7 @@
     <row r="1311">
       <c r="B1311" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1311">
@@ -17705,7 +17705,7 @@
     <row r="1323">
       <c r="B1323" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1323">
@@ -17718,7 +17718,7 @@
     <row r="1324">
       <c r="B1324" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1324">
@@ -17926,7 +17926,7 @@
     <row r="1340">
       <c r="B1340" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1340">
@@ -17939,7 +17939,7 @@
     <row r="1341">
       <c r="B1341" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1341">
@@ -17965,7 +17965,7 @@
     <row r="1343">
       <c r="B1343" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1343">
@@ -17978,7 +17978,7 @@
     <row r="1344">
       <c r="B1344" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1344">
@@ -17991,7 +17991,7 @@
     <row r="1345">
       <c r="B1345" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1345">
@@ -18108,7 +18108,7 @@
     <row r="1354">
       <c r="B1354" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1354">
@@ -18147,7 +18147,7 @@
     <row r="1357">
       <c r="B1357" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1357">
@@ -18199,7 +18199,7 @@
     <row r="1361">
       <c r="B1361" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1361">
@@ -18251,7 +18251,7 @@
     <row r="1365">
       <c r="B1365" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1365">
@@ -18381,7 +18381,7 @@
     <row r="1375">
       <c r="B1375" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1375">
@@ -18394,7 +18394,7 @@
     <row r="1376">
       <c r="B1376" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1376">
@@ -18446,7 +18446,7 @@
     <row r="1380">
       <c r="B1380" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1380">
@@ -18563,7 +18563,7 @@
     <row r="1389">
       <c r="B1389" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1389">
@@ -18615,7 +18615,7 @@
     <row r="1393">
       <c r="B1393" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1393">
@@ -18797,7 +18797,7 @@
     <row r="1407">
       <c r="B1407" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1407">
@@ -18914,7 +18914,7 @@
     <row r="1416">
       <c r="B1416" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1416">
@@ -19132,7 +19132,7 @@
     <row r="1432">
       <c r="B1432" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1432">
@@ -19158,7 +19158,7 @@
     <row r="1434">
       <c r="B1434" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1434">
@@ -19184,7 +19184,7 @@
     <row r="1436">
       <c r="B1436" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1436">
@@ -19301,7 +19301,7 @@
     <row r="1445">
       <c r="B1445" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1445">
@@ -19353,7 +19353,7 @@
     <row r="1449">
       <c r="B1449" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1449">
@@ -19392,7 +19392,7 @@
     <row r="1452">
       <c r="B1452" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1452">
@@ -19405,7 +19405,7 @@
     <row r="1453">
       <c r="B1453" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1453">
@@ -19418,7 +19418,7 @@
     <row r="1454">
       <c r="B1454" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1454">
@@ -19535,7 +19535,7 @@
     <row r="1463">
       <c r="B1463" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1463">
@@ -19548,7 +19548,7 @@
     <row r="1464">
       <c r="B1464" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1464">
@@ -19587,7 +19587,7 @@
     <row r="1467">
       <c r="B1467" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1467">
@@ -19686,41 +19686,6 @@
       </c>
       <c r="D1474">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1476">
-      <c r="A1476" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="1477">
-      <c r="A1477" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1478">
-      <c r="A1478" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1479">
-      <c r="A1479" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1480">
-      <c r="A1480" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>
